--- a/mamografias_CA_mama_ampliada.xlsx
+++ b/mamografias_CA_mama_ampliada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A41BDD9-8599-EC4E-B9E4-1BDA649EA532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A04418-A13F-B74B-865E-7437BA879FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="323">
   <si>
     <t>Ano</t>
   </si>
@@ -489,15 +489,6 @@
   </si>
   <si>
     <t>Diadema (SP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estabelecimentos_mamografia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">estabelecimentos_mamografia_por_telemedicina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">estabelecimentos_anatomopatologicos </t>
   </si>
   <si>
     <t>Notas</t>
@@ -1036,6 +1027,27 @@
   </si>
   <si>
     <t>ano</t>
+  </si>
+  <si>
+    <t>Populaçãofeminina</t>
+  </si>
+  <si>
+    <t>estabelecimentos_mamografia</t>
+  </si>
+  <si>
+    <t>estabelecimentos_mamografia_por_telemedicina</t>
+  </si>
+  <si>
+    <t>estabelecimentos_anatomopatologicos</t>
+  </si>
+  <si>
+    <t>estabelecimentos_citopatologicos</t>
+  </si>
+  <si>
+    <t>mamografos_existentes</t>
+  </si>
+  <si>
+    <t>citopatologico_ate_30_dias</t>
   </si>
 </sst>
 </file>
@@ -17609,7 +17621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -17635,34 +17647,34 @@
   <sheetData>
     <row r="1" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>150</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>151</v>
+        <v>319</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>7</v>
+        <v>320</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>10</v>
@@ -17671,7 +17683,7 @@
         <v>15</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="N1" s="22" t="s">
         <v>13</v>
@@ -55602,1003 +55614,1003 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="41"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B7" s="41"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B8" s="41"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B10" s="41"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B12" s="41"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" s="41"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B14" s="41"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B16" s="41"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B17" s="41"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B19" s="41"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="41" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B21" s="41"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B22" s="41"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B23" s="41"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B24" s="41"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B25" s="41"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B26" s="41"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B27" s="41"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B28" s="41"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B29" s="41"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B30" s="41"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B31" s="41"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="41" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B32" s="41"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B33" s="41"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B34" s="41"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B35" s="41"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B36" s="41"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B37" s="41"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="41" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B38" s="41"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B39" s="41"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="41" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B40" s="41"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="41" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B41" s="41"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B42" s="41"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B43" s="41"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B44" s="41"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="41" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B45" s="41"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B46" s="41"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B47" s="41"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B48" s="41"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B49" s="41"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B50" s="41"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B51" s="41"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B52" s="41"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B53" s="41"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B54" s="41"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B55" s="41"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="41" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B56" s="41"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B57" s="41"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B58" s="41"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B59" s="41"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B60" s="41"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B61" s="41"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B62" s="41"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B63" s="41"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B64" s="41"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B65" s="41"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="41" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B66" s="41"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="41" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B67" s="41"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="41" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B68" s="41"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B69" s="41"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="41" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B70" s="41"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B71" s="41"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="41" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B72" s="41"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B73" s="41"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="41" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B74" s="41"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B75" s="41"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B76" s="41"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="41" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B77" s="41"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="41" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B78" s="41"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B79" s="41"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="41" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B80" s="41"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="41" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B81" s="41"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B82" s="41"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="41" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B83" s="41"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="41" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B84" s="41"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="41" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B85" s="41"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B86" s="41"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="41" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B87" s="41"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B88" s="41"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="41" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B89" s="41"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B90" s="41"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="41" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B91" s="41"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="41" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B92" s="41"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B93" s="41"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B94" s="41"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B95" s="41"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="41" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B96" s="41"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="41" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B97" s="41"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B98" s="41"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="41" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B99" s="41"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="41" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B100" s="41"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B101" s="41"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="41" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B102" s="41"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B103" s="41"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B104" s="41"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B105" s="41"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B106" s="41"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B107" s="41"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B108" s="41"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B109" s="41"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B110" s="41"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B111" s="41"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="41" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B112" s="41"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B113" s="41"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B114" s="41"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="41" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B115" s="41"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="41" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B116" s="41"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B117" s="41"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B118" s="41"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="41" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B119" s="41"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B120" s="41"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B121" s="41"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="41" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B122" s="41"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B123" s="41"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="41" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B124" s="41"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="41" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B125" s="41"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="41" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B126" s="41"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="41" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B127" s="41"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="41" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B128" s="41"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="41" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B129" s="41"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="41" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B130" s="41"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="41" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B131" s="41"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B132" s="41"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B133" s="41"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B134" s="41"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B135" s="41"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B136" s="41"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B137" s="41"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="41" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B138" s="41"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="41" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B139" s="41"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="41" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B140" s="41"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B141" s="41"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="41" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B142" s="41"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B143" s="41"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="41" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B144" s="41"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="41" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B145" s="41"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="41" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B146" s="41"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B147" s="41"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="41" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B148" s="41"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="41" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B149" s="41"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B150" s="41"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B151" s="41"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="41" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B152" s="41"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B153" s="41"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B154" s="41"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="41" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B155" s="41"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="41" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B156" s="41"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B157" s="41"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B158" s="41"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="41" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B159" s="41"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="41" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B160" s="41"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="41" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B161" s="41"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="41" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B162" s="41"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="41" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B163" s="41"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="41" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B164" s="41"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="41" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B165" s="41"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="41" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B166" s="41"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="41" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B167" s="41"/>
     </row>
@@ -56608,16 +56620,16 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B169" s="41"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B170" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -56625,47 +56637,47 @@
         <v>54</v>
       </c>
       <c r="B171" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B172" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B173" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B174" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B175" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B176" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/mamografias_CA_mama_ampliada.xlsx
+++ b/mamografias_CA_mama_ampliada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F46AF60-3EA4-D44D-9BA3-251E2057E95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB485F90-8492-1344-BB4A-A996BBE715A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="28180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="321">
   <si>
     <t>Ano</t>
   </si>
@@ -17622,7 +17622,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight" activeCell="B8" sqref="A1:O716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -17764,15 +17764,9 @@
       <c r="H3" s="33">
         <v>84</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="23">
         <v>0</v>
       </c>
@@ -17811,15 +17805,9 @@
       <c r="H4" s="33">
         <v>95</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="23">
         <v>0</v>
       </c>
@@ -18281,12 +18269,8 @@
       <c r="H14" s="33">
         <v>46</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="23">
         <v>9</v>
       </c>
@@ -18328,12 +18312,8 @@
       <c r="H15" s="33">
         <v>45</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="23">
         <v>2</v>
       </c>
@@ -18375,12 +18355,8 @@
       <c r="H16" s="33">
         <v>47</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="23">
         <v>0</v>
       </c>
@@ -18422,12 +18398,8 @@
       <c r="H17" s="33">
         <v>50</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="23">
         <v>0</v>
       </c>
@@ -18469,12 +18441,8 @@
       <c r="H18" s="33">
         <v>46</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="23">
         <v>2</v>
       </c>
@@ -18751,24 +18719,14 @@
       <c r="H24" s="33">
         <v>11</v>
       </c>
-      <c r="I24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
       <c r="L24" s="23">
         <v>0</v>
       </c>
-      <c r="M24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="N24" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="23">
         <v>111</v>
       </c>
@@ -18798,24 +18756,14 @@
       <c r="H25" s="33">
         <v>5</v>
       </c>
-      <c r="I25" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="23">
         <v>0</v>
       </c>
-      <c r="M25" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
       <c r="O25" s="23">
         <v>112</v>
       </c>
@@ -18845,24 +18793,14 @@
       <c r="H26" s="33">
         <v>5</v>
       </c>
-      <c r="I26" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="23">
         <v>1</v>
       </c>
-      <c r="M26" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="N26" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
       <c r="O26" s="23">
         <v>114</v>
       </c>
@@ -23404,12 +23342,8 @@
       <c r="H123" s="33">
         <v>22</v>
       </c>
-      <c r="I123" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J123" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23"/>
       <c r="K123" s="23">
         <v>0</v>
       </c>
@@ -23451,9 +23385,7 @@
       <c r="H124" s="33">
         <v>18</v>
       </c>
-      <c r="I124" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I124" s="23"/>
       <c r="J124" s="23">
         <v>190</v>
       </c>
@@ -39951,9 +39883,7 @@
       <c r="I475" s="23">
         <v>1</v>
       </c>
-      <c r="J475" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="J475" s="23"/>
       <c r="K475" s="23">
         <v>0</v>
       </c>
@@ -39995,12 +39925,8 @@
       <c r="H476" s="35">
         <v>7</v>
       </c>
-      <c r="I476" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J476" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I476" s="23"/>
+      <c r="J476" s="23"/>
       <c r="K476" s="23">
         <v>0</v>
       </c>
@@ -40042,12 +39968,8 @@
       <c r="H477" s="35">
         <v>7</v>
       </c>
-      <c r="I477" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J477" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I477" s="23"/>
+      <c r="J477" s="23"/>
       <c r="K477" s="23">
         <v>0</v>
       </c>
@@ -40465,12 +40387,8 @@
       <c r="H486" s="35">
         <v>6</v>
       </c>
-      <c r="I486" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J486" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I486" s="23"/>
+      <c r="J486" s="23"/>
       <c r="K486" s="23">
         <v>0</v>
       </c>
@@ -40512,12 +40430,8 @@
       <c r="H487" s="35">
         <v>6</v>
       </c>
-      <c r="I487" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J487" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I487" s="23"/>
+      <c r="J487" s="23"/>
       <c r="K487" s="23">
         <v>0</v>
       </c>
@@ -40559,12 +40473,8 @@
       <c r="H488" s="35">
         <v>6</v>
       </c>
-      <c r="I488" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J488" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I488" s="23"/>
+      <c r="J488" s="23"/>
       <c r="K488" s="23">
         <v>0</v>
       </c>
@@ -40606,12 +40516,8 @@
       <c r="H489" s="35">
         <v>6</v>
       </c>
-      <c r="I489" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J489" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I489" s="23"/>
+      <c r="J489" s="23"/>
       <c r="K489" s="23">
         <v>0</v>
       </c>
@@ -40653,12 +40559,8 @@
       <c r="H490" s="35">
         <v>7</v>
       </c>
-      <c r="I490" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J490" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I490" s="23"/>
+      <c r="J490" s="23"/>
       <c r="K490" s="23">
         <v>0</v>
       </c>
@@ -40700,12 +40602,8 @@
       <c r="H491" s="35">
         <v>6</v>
       </c>
-      <c r="I491" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J491" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I491" s="23"/>
+      <c r="J491" s="23"/>
       <c r="K491" s="23">
         <v>0</v>
       </c>
@@ -44084,12 +43982,8 @@
       <c r="H563" s="35">
         <v>4</v>
       </c>
-      <c r="I563" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J563" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I563" s="23"/>
+      <c r="J563" s="23"/>
       <c r="K563" s="23">
         <v>0</v>
       </c>
@@ -44131,12 +44025,8 @@
       <c r="H564" s="35">
         <v>5</v>
       </c>
-      <c r="I564" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J564" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I564" s="23"/>
+      <c r="J564" s="23"/>
       <c r="K564" s="23">
         <v>0</v>
       </c>
@@ -44178,12 +44068,8 @@
       <c r="H565" s="35">
         <v>6</v>
       </c>
-      <c r="I565" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J565" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I565" s="23"/>
+      <c r="J565" s="23"/>
       <c r="K565" s="23">
         <v>0</v>
       </c>
@@ -44225,12 +44111,8 @@
       <c r="H566" s="35">
         <v>4</v>
       </c>
-      <c r="I566" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J566" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I566" s="23"/>
+      <c r="J566" s="23"/>
       <c r="K566" s="23">
         <v>0</v>
       </c>
@@ -44272,12 +44154,8 @@
       <c r="H567" s="35">
         <v>4</v>
       </c>
-      <c r="I567" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J567" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I567" s="23"/>
+      <c r="J567" s="23"/>
       <c r="K567" s="23">
         <v>0</v>
       </c>
@@ -44319,12 +44197,8 @@
       <c r="H568" s="35">
         <v>4</v>
       </c>
-      <c r="I568" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J568" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I568" s="23"/>
+      <c r="J568" s="23"/>
       <c r="K568" s="23">
         <v>0</v>
       </c>
@@ -44366,12 +44240,8 @@
       <c r="H569" s="35">
         <v>4</v>
       </c>
-      <c r="I569" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J569" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I569" s="23"/>
+      <c r="J569" s="23"/>
       <c r="K569" s="23">
         <v>0</v>
       </c>
@@ -44413,12 +44283,8 @@
       <c r="H570" s="35">
         <v>5</v>
       </c>
-      <c r="I570" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J570" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I570" s="23"/>
+      <c r="J570" s="23"/>
       <c r="K570" s="23">
         <v>0</v>
       </c>
@@ -44460,12 +44326,8 @@
       <c r="H571" s="35">
         <v>5</v>
       </c>
-      <c r="I571" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J571" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I571" s="23"/>
+      <c r="J571" s="23"/>
       <c r="K571" s="23">
         <v>0</v>
       </c>
@@ -44507,12 +44369,8 @@
       <c r="H572" s="35">
         <v>5</v>
       </c>
-      <c r="I572" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J572" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I572" s="23"/>
+      <c r="J572" s="23"/>
       <c r="K572" s="23">
         <v>0</v>
       </c>
@@ -44554,12 +44412,8 @@
       <c r="H573" s="37">
         <v>6</v>
       </c>
-      <c r="I573" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J573" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I573" s="23"/>
+      <c r="J573" s="23"/>
       <c r="K573" s="23">
         <v>0</v>
       </c>
@@ -44601,12 +44455,8 @@
       <c r="H574" s="35">
         <v>4</v>
       </c>
-      <c r="I574" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J574" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I574" s="23"/>
+      <c r="J574" s="23"/>
       <c r="K574" s="23">
         <v>0</v>
       </c>
@@ -44648,12 +44498,8 @@
       <c r="H575" s="35">
         <v>4</v>
       </c>
-      <c r="I575" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J575" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I575" s="23"/>
+      <c r="J575" s="23"/>
       <c r="K575" s="23">
         <v>0</v>
       </c>
@@ -44695,12 +44541,8 @@
       <c r="H576" s="35">
         <v>4</v>
       </c>
-      <c r="I576" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J576" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I576" s="23"/>
+      <c r="J576" s="23"/>
       <c r="K576" s="23">
         <v>0</v>
       </c>
@@ -44742,12 +44584,8 @@
       <c r="H577" s="35">
         <v>4</v>
       </c>
-      <c r="I577" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J577" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I577" s="23"/>
+      <c r="J577" s="23"/>
       <c r="K577" s="23">
         <v>0</v>
       </c>
@@ -44789,12 +44627,8 @@
       <c r="H578" s="35">
         <v>4</v>
       </c>
-      <c r="I578" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J578" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I578" s="23"/>
+      <c r="J578" s="23"/>
       <c r="K578" s="23">
         <v>0</v>
       </c>
@@ -44836,12 +44670,8 @@
       <c r="H579" s="35">
         <v>5</v>
       </c>
-      <c r="I579" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J579" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I579" s="23"/>
+      <c r="J579" s="23"/>
       <c r="K579" s="23">
         <v>0</v>
       </c>
@@ -44883,12 +44713,8 @@
       <c r="H580" s="35">
         <v>6</v>
       </c>
-      <c r="I580" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J580" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="I580" s="23"/>
+      <c r="J580" s="23"/>
       <c r="K580" s="23">
         <v>0</v>
       </c>
